--- a/ARCC/ Code/test.xlsx
+++ b/ARCC/ Code/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Business Description</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Interest(6)(12)</t>
+          <t>Interest(5)(10)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -459,26 +459,23 @@
           <t>Acquisition  Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Amortized  Cost</t>
+        </is>
+      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Amortized  Cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>Fair  Value</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Percentage  of Net  Assets</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr"/>
-      <c r="M1" s="1" t="inlineStr"/>
-      <c r="N1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Investment Funds and Vehicles</t>
+          <t>Investment Funds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -498,9 +495,6 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,41 +502,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HCI Equity, LLC(8)(9)(10)</t>
+          <t>AGILE  Fund I, LLC (7)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Investment company</t>
+          <t>Investment partnership</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Member interest (100.00% interest)</t>
+          <t>Member interest (0.50%  interest)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4/1/2010</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G3" t="n">
+        <v>264</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(16)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -550,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Imperial Capital Private Opportunities, LP(10)(25)</t>
+          <t>BB&amp;T  Capital Partners/Windsor Mezzanine Fund, LLC (6)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,35 +553,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Limited partnership interest (80.00% interest)</t>
+          <t>Member interest (32.59%  interest)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5/10/2007</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
+          <t>12877</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>16.8</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -596,45 +582,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Partnership Capital Growth Fund I, L.P.(10)</t>
+          <t>Callidus  Debt Partners CDO Fund I, Ltd. (8)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Investment partnership</t>
+          <t>Investment company</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Limited partnership interest (25.00% interest)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>Class C notes  ($18,800 par due 12/2013)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6/16/2006</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -642,45 +633,46 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Partnership Capital Growth Investors III, L.P.(10)(25)</t>
+          <t>Callidus  Debt Partners CDO Fund I, Ltd. (8)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Investment partnership</t>
+          <t>Investment company</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Limited partnership interest (2.50% interest)</t>
+          <t>Class D notes  ($9,400 par due 12/2013)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/5/2011</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>(13)(16)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -688,45 +680,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PCG-Ares Sidecar Investment II, L.P.(10)(25)</t>
+          <t>Callidus  Debt Partners CDO Fund I, Ltd. (8)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Investment partnership</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Limited partnership interest (100.00% interest)</t>
-        </is>
-      </c>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/31/2014</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -734,45 +711,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PCG-Ares Sidecar Investment, L.P.(10)(25)</t>
+          <t>Callidus  Debt Partners CLO Fund III, Ltd. (8)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Investment partnership</t>
+          <t>Investment company</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Limited partnership interest (100.00% interest)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>Preferred shares (23,600,000  shares )</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5/22/2014</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>4753</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6874</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -780,41 +762,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Piper Jaffray Merchant Banking Fund I, L.P.(10)(25)</t>
+          <t>Callidus  Debt Partners CLO Fund IV, Ltd. (8)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Investment partnership</t>
+          <t>Investment company</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Limited partnership interest (2.00% interest)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>Class D notes  ($3,000 par due 4/2020)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.84% (Libor +  4.55%/Q)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8/16/2012</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>1789</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -822,105 +813,132 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Senior Direct Lending Program, LLC(8)(10)(27)</t>
+          <t>Callidus  Debt Partners CLO Fund IV, Ltd. (8)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Co-investment vehicle</t>
+          <t>Investment company</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Subordinated certificates ($269.8 par due 12/2036)(21)</t>
+          <t>Subordinated notes  ($17,500 par due 4/2020)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.00% (Libor + 8.00%/Q)(21)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7/27/2016</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10285</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>269.8</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>269.8</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Member interest (87.50% interest)</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Callidus  Debt Partners CLO Fund IV, Ltd. (8)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7/27/2016</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>9005</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12026</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Callidus  Debt Partners CLO Fund V, Ltd. (8)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Subordinated notes  ($14,150 par due 11/2020)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>19.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8692</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11096</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>269.8</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>269.8</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,105 +946,132 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Senior Secured Loan Fund LLC(8)(11)(26)</t>
+          <t>Callidus  Debt Partners CLO Fund VI, Ltd. (8)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Co-investment vehicle</t>
+          <t>Investment company</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Subordinated certificates ($2,004.0 par due 12/2024)(20)</t>
+          <t>Class D notes  ($9,000 par due 10/2021)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.00% (Libor + 8.00%/M)(20)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>6.29% (Libor +  6.00%/Q)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/30/2009</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>3962</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1938.4</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1914.2</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Callidus  Debt Partners CLO Fund VI, Ltd. (8)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Member interest (87.50% interest)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>Subordinated notes  ($25,500 par due 10/2021)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18.39%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/30/2009</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>11050</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>17101</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Callidus  Debt Partners CLO Fund VI, Ltd. (8)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1938.4</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>15012</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>21342</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1914.2</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1034,7 +1079,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VSC Investors LLC(10)</t>
+          <t>Callidus  Debt Partners CLO Fund VII, Ltd. (8)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1044,69 +1089,91 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Membership interest (1.95% interest)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+          <t>Subordinated notes  ($28,000 par due 1/2021)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.27%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1/24/2008</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>10374</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15080</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Callidus  MAPS CLO Fund I LLC</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Class E notes  ($17,000 par due 12/2017)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.80% (Libor +  5.53%/Q)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>11679</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>11244</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2227.8</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2223.6</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>43.05</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1114,21 +1181,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>Callidus  MAPS CLO Fund I LLC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Subordinated Notes  ($47,900 par due 12/2017)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.18%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13419</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>17946</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1136,193 +1232,202 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Absolute Dental Management LLC and ADM Equity, LLC</t>
+          <t>Callidus  MAPS CLO Fund I LLC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dental services provider</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>First lien senior secured loan ($18.8 par due 1/2022)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9.06% (Libor + 8.06%/Q)</t>
-        </is>
-      </c>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1/5/2016</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>18.8</t>
-        </is>
-      </c>
+          <t>25098</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>29190</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>17.8</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>(3)(19)</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Callidus  MAPS CLO Fund II, Ltd.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>First lien senior secured loan ($5.0 par due 1/2022)</t>
+          <t>Class D notes  ($7,700 par due 7/2022)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.06% (Libor + 8.06%/Q)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>4.54% (Libor +  4.25%/Q)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1/5/2016</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>(4)(19)</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Callidus  MAPS CLO Fund II, Ltd.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Class A preferred units (4,000,000 units)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>Subordinated notes  ($17,900 par due 7/2022)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19.30%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1/5/2016</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>8977</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>12906</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Class A common units (4,000,000 units)</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Callidus  MAPS CLO Fund II, Ltd.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1/5/2016</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>12301</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>16955</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Catterton  Partners VI, L.P.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Investment partnership</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Limited partnership  interest (0.50% interest)</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2226</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>24.2</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1330,49 +1435,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ADCS Billings Intermediate Holdings, LLC(24)</t>
+          <t>CIC  Flex, LP (9)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dermatology practice</t>
+          <t>Investment partnership</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>First lien senior secured revolving loan ($1.6 par due 5/2022)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>8.50% (Base Rate + 4.75%/Q)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Limited partnership  units (0.94 unit)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9/7/2007</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5/18/2016</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>(2)(19)(23)</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1380,155 +1482,930 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ADG, LLC and RC IV GEDC Investor LLC(24)</t>
+          <t>Cortec  Group Fund IV, L.P.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dental services provider</t>
+          <t>Investment partnership</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>First lien senior secured revolving loan ($2.0 par due 9/2022)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.75% (Libor + 4.75%/Q)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>Limited partnership  interest (2.53% interest)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9/28/2016</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>(16)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>(2)(19)</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Covestia  Capital Partners, LP (9)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Investment partnership</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Second lien senior secured loan ($87.5 par due 3/2024)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>10.00% (Libor + 9.00%/Q)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>Limited partnership  interest (47.00% interest)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6/17/2008</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9/28/2016</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>87.5</t>
+          <t>(16)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>(2)(19)</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dryden  XVIII Leveraged Loan 2007 Limited (8)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Membership units (3,000,000 units)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>Class B notes  ($9,000 par due 10/2019)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.79% (Libor +  4.50%/Q)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9/28/2016</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dryden  XVIII Leveraged Loan 2007 Limited (8)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Subordinated notes  ($21,164 par due 10/2019)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.03%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>12715</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>16486</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>92.5</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>92.5</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dryden  XVIII Leveraged Loan 2007 Limited (8)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>16468</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20048</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dynamic  India Fund IV</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Member interest (5.44%  interest)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4822</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4822</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fidus  Mezzanine Capital, L.P.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Investment partnership</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Limited partnership  interest (29.12% interest)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>9588</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Firstlight  Financial Corporation (6)(9)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Senior subordinated loan  ($73,625 par due 12/2016)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.00% PIK</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>12/31/2006</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>73433</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>47857</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>(4)(16)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Firstlight  Financial Corporation (6)(9)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common stock (10,000  shares )</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12/31/2006</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Firstlight  Financial Corporation (6)(9)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common stock (30,000  shares )</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>12/31/2006</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Firstlight  Financial Corporation (6)(9)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>113433</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>47857</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>HCI Private  Equity Managers, LP (7) (8)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Member interest (100%  interest)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ivy  Hill Middle Market Credit Fund, Ltd. (7)(8)(9)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Class B deferrable  interest notes ($40,000 par due 11/2018)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6.48% (Libor +  6.00%/Q)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>11/20/2007</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>15351</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>14737</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ivy  Hill Middle Market Credit Fund, Ltd. (7)(8)(9)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Subordinated notes  ($15,351 par due 11/2018)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15.50%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>11/20/2007</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>37200</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ivy  Hill Middle Market Credit Fund, Ltd. (7)(8)(9)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>55351</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>51937</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Knightsbridge  CLO 2007-1 Ltd. (7)(8)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Class E notes  ($20,350 par due 1/2022)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>9.29% (Libor +  9.00%/Q)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3/24/2010</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>14852</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>11296</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Knightsbridge  CLO 2008-1 Ltd. (7)(8)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Class C notes  ($14,400 par due 6/2018)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7.79% (Libor +  7.50%/Q)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3/24/2010</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>14400</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14400</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Knightsbridge  CLO 2008-1 Ltd. (7)(8)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Class D notes  ($9,000 par due 6/2018)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8.79% (Libor +  8.50%/Q)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3/24/2010</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Knightsbridge  CLO 2008-1 Ltd. (7)(8)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Class E notes  ($14,850 par due 6/2018)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5.29% (Libor +  5.00%/Q)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3/24/2010</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>13596</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>9914</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>(16)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Knightsbridge  CLO 2008-1 Ltd. (7)(8)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Investment company</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>36996</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>33314</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kodiak  Fund LP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Investment partnership</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Limited partnership  interest (1.52% interest)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4/1/2010</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
